--- a/biology/Zoologie/Chilabothrus_monensis/Chilabothrus_monensis.xlsx
+++ b/biology/Zoologie/Chilabothrus_monensis/Chilabothrus_monensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilabothrus monensis est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilabothrus monensis est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre à Porto Rico et aux îles Vierges américaines et britanniques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre à Porto Rico et aux îles Vierges américaines et britanniques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 août 2013) :
 Chilabothrus monensis monensis (Zenneck, 1898) de l'île Mona
 Chilabothrus monensis granti (Stull, 1933)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de mon[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'île Mona.
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Stull, 1933 : Two new subspecies of the family Boidae. Occasional Papers Museum of Zoology, University of Michigan, no 267, p. 1-4 (texte intégral).
 Zenneck, 1898 : Die Zeichnung der Boiden. Zeitschrift für wissenschaftliche Zoologie, vol. 64, p. 1-384 (texte intégral).</t>
